--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itga8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itga8.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H2">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3065173333333333</v>
+        <v>0.5403043333333334</v>
       </c>
       <c r="N2">
-        <v>0.9195519999999999</v>
+        <v>1.620913</v>
       </c>
       <c r="O2">
-        <v>0.03210245953075806</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="P2">
-        <v>0.03210245953075805</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="Q2">
-        <v>6.073739454236444</v>
+        <v>17.79735368732611</v>
       </c>
       <c r="R2">
-        <v>54.663655088128</v>
+        <v>160.176183185935</v>
       </c>
       <c r="S2">
-        <v>0.0007861576333180476</v>
+        <v>0.002476522845423065</v>
       </c>
       <c r="T2">
-        <v>0.0007861576333180474</v>
+        <v>0.002476522845423065</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H3">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.348442</v>
       </c>
       <c r="O3">
-        <v>0.04707542883336065</v>
+        <v>0.0801073419205048</v>
       </c>
       <c r="P3">
-        <v>0.04707542883336064</v>
+        <v>0.08010734192050478</v>
       </c>
       <c r="Q3">
-        <v>8.906603843120889</v>
+        <v>14.80566767053222</v>
       </c>
       <c r="R3">
-        <v>80.159434588088</v>
+        <v>133.25100903479</v>
       </c>
       <c r="S3">
-        <v>0.001152830912647305</v>
+        <v>0.002060226192724698</v>
       </c>
       <c r="T3">
-        <v>0.001152830912647305</v>
+        <v>0.002060226192724697</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H4">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.488968</v>
+        <v>1.384207</v>
       </c>
       <c r="N4">
-        <v>1.466904</v>
+        <v>4.152621</v>
       </c>
       <c r="O4">
-        <v>0.05121105309488437</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="P4">
-        <v>0.05121105309488436</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="Q4">
-        <v>9.689058041717333</v>
+        <v>45.59508416948833</v>
       </c>
       <c r="R4">
-        <v>87.20152237545601</v>
+        <v>410.355757525395</v>
       </c>
       <c r="S4">
-        <v>0.001254108279841463</v>
+        <v>0.0063446099666568</v>
       </c>
       <c r="T4">
-        <v>0.001254108279841463</v>
+        <v>0.006344609966656799</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H5">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.544727666666667</v>
+        <v>1.166634</v>
       </c>
       <c r="N5">
-        <v>19.634183</v>
+        <v>3.499902</v>
       </c>
       <c r="O5">
-        <v>0.6854485283888218</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="P5">
-        <v>0.6854485283888216</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="Q5">
-        <v>129.6858817541569</v>
+        <v>38.42833869861</v>
       </c>
       <c r="R5">
-        <v>1167.172935787412</v>
+        <v>345.85504828749</v>
       </c>
       <c r="S5">
-        <v>0.01678595972757761</v>
+        <v>0.005347348845830637</v>
       </c>
       <c r="T5">
-        <v>0.01678595972757761</v>
+        <v>0.005347348845830636</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H6">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8194676666666667</v>
+        <v>1.273574666666667</v>
       </c>
       <c r="N6">
-        <v>2.458403</v>
+        <v>3.820724</v>
       </c>
       <c r="O6">
-        <v>0.08582525275111598</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="P6">
-        <v>0.08582525275111597</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="Q6">
-        <v>16.23801513727689</v>
+        <v>41.95091061004222</v>
       </c>
       <c r="R6">
-        <v>146.142136235492</v>
+        <v>377.55819549038</v>
       </c>
       <c r="S6">
-        <v>0.002101775956359171</v>
+        <v>0.00583751889956845</v>
       </c>
       <c r="T6">
-        <v>0.002101775956359171</v>
+        <v>0.005837518899568448</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H7">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9389336666666667</v>
+        <v>0.7967789999999999</v>
       </c>
       <c r="N7">
-        <v>2.816801</v>
+        <v>2.390337</v>
       </c>
       <c r="O7">
-        <v>0.09833727740105923</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="P7">
-        <v>0.09833727740105921</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="Q7">
-        <v>18.60527231568489</v>
+        <v>26.245500542535</v>
       </c>
       <c r="R7">
-        <v>167.447450841164</v>
+        <v>236.209504882815</v>
       </c>
       <c r="S7">
-        <v>0.002408183123616619</v>
+        <v>0.00365209248661713</v>
       </c>
       <c r="T7">
-        <v>0.002408183123616619</v>
+        <v>0.003652092486617129</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3065173333333333</v>
+        <v>0.5403043333333334</v>
       </c>
       <c r="N8">
-        <v>0.9195519999999999</v>
+        <v>1.620913</v>
       </c>
       <c r="O8">
-        <v>0.03210245953075806</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="P8">
-        <v>0.03210245953075805</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="Q8">
-        <v>162.5460040360391</v>
+        <v>286.5231450098181</v>
       </c>
       <c r="R8">
-        <v>1462.914036324352</v>
+        <v>2578.708305088363</v>
       </c>
       <c r="S8">
-        <v>0.02103922678954343</v>
+        <v>0.03987003499652808</v>
       </c>
       <c r="T8">
-        <v>0.02103922678954343</v>
+        <v>0.03987003499652808</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.348442</v>
       </c>
       <c r="O9">
-        <v>0.04707542883336065</v>
+        <v>0.0801073419205048</v>
       </c>
       <c r="P9">
-        <v>0.04707542883336064</v>
+        <v>0.08010734192050478</v>
       </c>
       <c r="Q9">
         <v>238.3593954168602</v>
@@ -1013,10 +1013,10 @@
         <v>2145.234558751742</v>
       </c>
       <c r="S9">
-        <v>0.03085217263465853</v>
+        <v>0.03316799219377493</v>
       </c>
       <c r="T9">
-        <v>0.03085217263465853</v>
+        <v>0.03316799219377493</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.488968</v>
+        <v>1.384207</v>
       </c>
       <c r="N10">
-        <v>1.466904</v>
+        <v>4.152621</v>
       </c>
       <c r="O10">
-        <v>0.05121105309488437</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="P10">
-        <v>0.05121105309488436</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="Q10">
-        <v>259.2995105273893</v>
+        <v>734.0443496682523</v>
       </c>
       <c r="R10">
-        <v>2333.695594746504</v>
+        <v>6606.399147014271</v>
       </c>
       <c r="S10">
-        <v>0.03356256735289404</v>
+        <v>0.1021431406851061</v>
       </c>
       <c r="T10">
-        <v>0.03356256735289403</v>
+        <v>0.1021431406851061</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.544727666666667</v>
+        <v>1.166634</v>
       </c>
       <c r="N11">
-        <v>19.634183</v>
+        <v>3.499902</v>
       </c>
       <c r="O11">
-        <v>0.6854485283888218</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="P11">
-        <v>0.6854485283888216</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="Q11">
-        <v>3470.666138687459</v>
+        <v>618.665485603578</v>
       </c>
       <c r="R11">
-        <v>31235.99524818713</v>
+        <v>5567.989370432202</v>
       </c>
       <c r="S11">
-        <v>0.4492274813870214</v>
+        <v>0.08608803509159259</v>
       </c>
       <c r="T11">
-        <v>0.4492274813870213</v>
+        <v>0.08608803509159259</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8194676666666667</v>
+        <v>1.273574666666667</v>
       </c>
       <c r="N12">
-        <v>2.458403</v>
+        <v>3.820724</v>
       </c>
       <c r="O12">
-        <v>0.08582525275111598</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="P12">
-        <v>0.08582525275111597</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="Q12">
-        <v>434.5633351460392</v>
+        <v>675.3760730492583</v>
       </c>
       <c r="R12">
-        <v>3911.070016314353</v>
+        <v>6078.384657443325</v>
       </c>
       <c r="S12">
-        <v>0.05624793188106159</v>
+        <v>0.09397938050473699</v>
       </c>
       <c r="T12">
-        <v>0.05624793188106159</v>
+        <v>0.09397938050473699</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9389336666666667</v>
+        <v>0.7967789999999999</v>
       </c>
       <c r="N13">
-        <v>2.816801</v>
+        <v>2.390337</v>
       </c>
       <c r="O13">
-        <v>0.09833727740105923</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="P13">
-        <v>0.09833727740105921</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="Q13">
-        <v>497.9161012261612</v>
+        <v>422.5315454150429</v>
       </c>
       <c r="R13">
-        <v>4481.244911035451</v>
+        <v>3802.783908735386</v>
       </c>
       <c r="S13">
-        <v>0.06444803019297737</v>
+        <v>0.05879576500620078</v>
       </c>
       <c r="T13">
-        <v>0.06444803019297736</v>
+        <v>0.05879576500620078</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H14">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3065173333333333</v>
+        <v>0.5403043333333334</v>
       </c>
       <c r="N14">
-        <v>0.9195519999999999</v>
+        <v>1.620913</v>
       </c>
       <c r="O14">
-        <v>0.03210245953075806</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="P14">
-        <v>0.03210245953075805</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="Q14">
-        <v>34.99053665985422</v>
+        <v>228.1061137090174</v>
       </c>
       <c r="R14">
-        <v>314.914829938688</v>
+        <v>2052.955023381157</v>
       </c>
       <c r="S14">
-        <v>0.004529018357850771</v>
+        <v>0.03174123589976964</v>
       </c>
       <c r="T14">
-        <v>0.00452901835785077</v>
+        <v>0.03174123589976963</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H15">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.348442</v>
       </c>
       <c r="O15">
-        <v>0.04707542883336065</v>
+        <v>0.0801073419205048</v>
       </c>
       <c r="P15">
-        <v>0.04707542883336064</v>
+        <v>0.08010734192050478</v>
       </c>
       <c r="Q15">
-        <v>51.31053951781644</v>
+        <v>189.7621057897709</v>
       </c>
       <c r="R15">
-        <v>461.794855660348</v>
+        <v>1707.858952107938</v>
       </c>
       <c r="S15">
-        <v>0.006641406437588096</v>
+        <v>0.02640562178177186</v>
       </c>
       <c r="T15">
-        <v>0.006641406437588095</v>
+        <v>0.02640562178177185</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H16">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.488968</v>
+        <v>1.384207</v>
       </c>
       <c r="N16">
-        <v>1.466904</v>
+        <v>4.152621</v>
       </c>
       <c r="O16">
-        <v>0.05121105309488437</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="P16">
-        <v>0.05121105309488436</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="Q16">
-        <v>55.81822255673067</v>
+        <v>584.3856135501743</v>
       </c>
       <c r="R16">
-        <v>502.364003010576</v>
+        <v>5259.470521951569</v>
       </c>
       <c r="S16">
-        <v>0.00722486074219264</v>
+        <v>0.08131795029303687</v>
       </c>
       <c r="T16">
-        <v>0.007224860742192639</v>
+        <v>0.08131795029303686</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H17">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.544727666666667</v>
+        <v>1.166634</v>
       </c>
       <c r="N17">
-        <v>19.634183</v>
+        <v>3.499902</v>
       </c>
       <c r="O17">
-        <v>0.6854485283888218</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="P17">
-        <v>0.6854485283888216</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="Q17">
-        <v>747.1144644868225</v>
+        <v>492.5304711495419</v>
       </c>
       <c r="R17">
-        <v>6724.030180381403</v>
+        <v>4432.774240345878</v>
       </c>
       <c r="S17">
-        <v>0.09670315028231305</v>
+        <v>0.06853619843142449</v>
       </c>
       <c r="T17">
-        <v>0.09670315028231304</v>
+        <v>0.06853619843142447</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H18">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8194676666666667</v>
+        <v>1.273574666666667</v>
       </c>
       <c r="N18">
-        <v>2.458403</v>
+        <v>3.820724</v>
       </c>
       <c r="O18">
-        <v>0.08582525275111598</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="P18">
-        <v>0.08582525275111597</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="Q18">
-        <v>93.54646642734245</v>
+        <v>537.6787669632929</v>
       </c>
       <c r="R18">
-        <v>841.9181978460821</v>
+        <v>4839.108902669636</v>
       </c>
       <c r="S18">
-        <v>0.01210823566040355</v>
+        <v>0.07481863726918808</v>
       </c>
       <c r="T18">
-        <v>0.01210823566040355</v>
+        <v>0.07481863726918805</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H19">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9389336666666667</v>
+        <v>0.7967789999999999</v>
       </c>
       <c r="N19">
-        <v>2.816801</v>
+        <v>2.390337</v>
       </c>
       <c r="O19">
-        <v>0.09833727740105923</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="P19">
-        <v>0.09833727740105921</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="Q19">
-        <v>107.1841273294105</v>
+        <v>336.3847927216769</v>
       </c>
       <c r="R19">
-        <v>964.6571459646941</v>
+        <v>3027.463134495093</v>
       </c>
       <c r="S19">
-        <v>0.01387343341041334</v>
+        <v>0.04680834233357845</v>
       </c>
       <c r="T19">
-        <v>0.01387343341041334</v>
+        <v>0.04680834233357844</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H20">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I20">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J20">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.3065173333333333</v>
+        <v>0.5403043333333334</v>
       </c>
       <c r="N20">
-        <v>0.9195519999999999</v>
+        <v>1.620913</v>
       </c>
       <c r="O20">
-        <v>0.03210245953075806</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="P20">
-        <v>0.03210245953075805</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="Q20">
-        <v>17.266337787904</v>
+        <v>8.920026879344</v>
       </c>
       <c r="R20">
-        <v>155.397040091136</v>
+        <v>80.280241914096</v>
       </c>
       <c r="S20">
-        <v>0.002234877434846278</v>
+        <v>0.001241232305464293</v>
       </c>
       <c r="T20">
-        <v>0.002234877434846278</v>
+        <v>0.001241232305464293</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H21">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I21">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J21">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.348442</v>
       </c>
       <c r="O21">
-        <v>0.04707542883336065</v>
+        <v>0.0801073419205048</v>
       </c>
       <c r="P21">
-        <v>0.04707542883336064</v>
+        <v>0.08010734192050478</v>
       </c>
       <c r="Q21">
-        <v>25.319563286684</v>
+        <v>7.420594988895998</v>
       </c>
       <c r="R21">
-        <v>227.876069580156</v>
+        <v>66.78535490006399</v>
       </c>
       <c r="S21">
-        <v>0.003277250876512677</v>
+        <v>0.001032584581926903</v>
       </c>
       <c r="T21">
-        <v>0.003277250876512677</v>
+        <v>0.001032584581926903</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H22">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I22">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J22">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.488968</v>
+        <v>1.384207</v>
       </c>
       <c r="N22">
-        <v>1.466904</v>
+        <v>4.152621</v>
       </c>
       <c r="O22">
-        <v>0.05121105309488437</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="P22">
-        <v>0.05121105309488436</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="Q22">
-        <v>27.543912651408</v>
+        <v>22.852238793648</v>
       </c>
       <c r="R22">
-        <v>247.895213862672</v>
+        <v>205.670149142832</v>
       </c>
       <c r="S22">
-        <v>0.003565160696388834</v>
+        <v>0.003179916095157135</v>
       </c>
       <c r="T22">
-        <v>0.003565160696388834</v>
+        <v>0.003179916095157135</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H23">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I23">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J23">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.544727666666667</v>
+        <v>1.166634</v>
       </c>
       <c r="N23">
-        <v>19.634183</v>
+        <v>3.499902</v>
       </c>
       <c r="O23">
-        <v>0.6854485283888218</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="P23">
-        <v>0.6854485283888216</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="Q23">
-        <v>368.669130041066</v>
+        <v>19.260268697376</v>
       </c>
       <c r="R23">
-        <v>3318.022170369594</v>
+        <v>173.342418276384</v>
       </c>
       <c r="S23">
-        <v>0.0477188810837695</v>
+        <v>0.002680089201801139</v>
       </c>
       <c r="T23">
-        <v>0.0477188810837695</v>
+        <v>0.002680089201801139</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H24">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I24">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J24">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8194676666666667</v>
+        <v>1.273574666666667</v>
       </c>
       <c r="N24">
-        <v>2.458403</v>
+        <v>3.820724</v>
       </c>
       <c r="O24">
-        <v>0.08582525275111598</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="P24">
-        <v>0.08582525275111597</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="Q24">
-        <v>46.16119220750601</v>
+        <v>21.025780395712</v>
       </c>
       <c r="R24">
-        <v>415.4507298675541</v>
+        <v>189.232023561408</v>
       </c>
       <c r="S24">
-        <v>0.005974897983429318</v>
+        <v>0.002925762245760726</v>
       </c>
       <c r="T24">
-        <v>0.005974897983429318</v>
+        <v>0.002925762245760725</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H25">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I25">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J25">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9389336666666667</v>
+        <v>0.7967789999999999</v>
       </c>
       <c r="N25">
-        <v>2.816801</v>
+        <v>2.390337</v>
       </c>
       <c r="O25">
-        <v>0.09833727740105923</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="P25">
-        <v>0.09833727740105921</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="Q25">
-        <v>52.890796330502</v>
+        <v>13.154234860656</v>
       </c>
       <c r="R25">
-        <v>476.017166974518</v>
+        <v>118.388113745904</v>
       </c>
       <c r="S25">
-        <v>0.006845947802138902</v>
+        <v>0.001830427361213465</v>
       </c>
       <c r="T25">
-        <v>0.006845947802138902</v>
+        <v>0.001830427361213465</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H26">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.3065173333333333</v>
+        <v>0.5403043333333334</v>
       </c>
       <c r="N26">
-        <v>0.9195519999999999</v>
+        <v>1.620913</v>
       </c>
       <c r="O26">
-        <v>0.03210245953075806</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="P26">
-        <v>0.03210245953075805</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="Q26">
-        <v>14.16742190262044</v>
+        <v>24.10888813991389</v>
       </c>
       <c r="R26">
-        <v>127.506797123584</v>
+        <v>216.979993259225</v>
       </c>
       <c r="S26">
-        <v>0.001833767641352101</v>
+        <v>0.003354780340111128</v>
       </c>
       <c r="T26">
-        <v>0.0018337676413521</v>
+        <v>0.003354780340111128</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H27">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.348442</v>
       </c>
       <c r="O27">
-        <v>0.04707542883336065</v>
+        <v>0.0801073419205048</v>
       </c>
       <c r="P27">
-        <v>0.04707542883336064</v>
+        <v>0.08010734192050478</v>
       </c>
       <c r="Q27">
-        <v>20.77527614013489</v>
+        <v>20.05625060762777</v>
       </c>
       <c r="R27">
-        <v>186.977485261214</v>
+        <v>180.50625546865</v>
       </c>
       <c r="S27">
-        <v>0.002689058700149757</v>
+        <v>0.002790851027402537</v>
       </c>
       <c r="T27">
-        <v>0.002689058700149756</v>
+        <v>0.002790851027402537</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H28">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.488968</v>
+        <v>1.384207</v>
       </c>
       <c r="N28">
-        <v>1.466904</v>
+        <v>4.152621</v>
       </c>
       <c r="O28">
-        <v>0.05121105309488437</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="P28">
-        <v>0.05121105309488436</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="Q28">
-        <v>22.60040526108533</v>
+        <v>61.76461980159166</v>
       </c>
       <c r="R28">
-        <v>203.403647349768</v>
+        <v>555.8815782143249</v>
       </c>
       <c r="S28">
-        <v>0.002925295239605766</v>
+        <v>0.008594620001648829</v>
       </c>
       <c r="T28">
-        <v>0.002925295239605766</v>
+        <v>0.008594620001648829</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H29">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>6.544727666666667</v>
+        <v>1.166634</v>
       </c>
       <c r="N29">
-        <v>19.634183</v>
+        <v>3.499902</v>
       </c>
       <c r="O29">
-        <v>0.6854485283888218</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="P29">
-        <v>0.6854485283888216</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="Q29">
-        <v>302.5013857555179</v>
+        <v>52.05630766034999</v>
       </c>
       <c r="R29">
-        <v>2722.512471799661</v>
+        <v>468.50676894315</v>
       </c>
       <c r="S29">
-        <v>0.03915442460000686</v>
+        <v>0.007243696868317803</v>
       </c>
       <c r="T29">
-        <v>0.03915442460000686</v>
+        <v>0.007243696868317803</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H30">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8194676666666667</v>
+        <v>1.273574666666667</v>
       </c>
       <c r="N30">
-        <v>2.458403</v>
+        <v>3.820724</v>
       </c>
       <c r="O30">
-        <v>0.08582525275111598</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="P30">
-        <v>0.08582525275111597</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="Q30">
-        <v>37.87630553537789</v>
+        <v>56.82810090947778</v>
       </c>
       <c r="R30">
-        <v>340.886749818401</v>
+        <v>511.4529081853</v>
       </c>
       <c r="S30">
-        <v>0.004902539356994415</v>
+        <v>0.007907697550819043</v>
       </c>
       <c r="T30">
-        <v>0.004902539356994414</v>
+        <v>0.007907697550819043</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H31">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.9389336666666667</v>
+        <v>0.7967789999999999</v>
       </c>
       <c r="N31">
-        <v>2.816801</v>
+        <v>2.390337</v>
       </c>
       <c r="O31">
-        <v>0.09833727740105923</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="P31">
-        <v>0.09833727740105921</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="Q31">
-        <v>43.39809840305189</v>
+        <v>35.55302928022499</v>
       </c>
       <c r="R31">
-        <v>390.582885627467</v>
+        <v>319.9772635220249</v>
       </c>
       <c r="S31">
-        <v>0.005617255496076608</v>
+        <v>0.004947246134641534</v>
       </c>
       <c r="T31">
-        <v>0.005617255496076608</v>
+        <v>0.004947246134641533</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H32">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.3065173333333333</v>
+        <v>0.5403043333333334</v>
       </c>
       <c r="N32">
-        <v>0.9195519999999999</v>
+        <v>1.620913</v>
       </c>
       <c r="O32">
-        <v>0.03210245953075806</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="P32">
-        <v>0.03210245953075805</v>
+        <v>0.09629411714733833</v>
       </c>
       <c r="Q32">
-        <v>12.97489016331378</v>
+        <v>126.5552343760647</v>
       </c>
       <c r="R32">
-        <v>116.774011469824</v>
+        <v>1138.997109384582</v>
       </c>
       <c r="S32">
-        <v>0.001679411673847425</v>
+        <v>0.01761031076004213</v>
       </c>
       <c r="T32">
-        <v>0.001679411673847425</v>
+        <v>0.01761031076004213</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H33">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.348442</v>
       </c>
       <c r="O33">
-        <v>0.04707542883336065</v>
+        <v>0.0801073419205048</v>
       </c>
       <c r="P33">
-        <v>0.04707542883336064</v>
+        <v>0.08010734192050478</v>
       </c>
       <c r="Q33">
-        <v>19.02653340061155</v>
+        <v>105.2816488932653</v>
       </c>
       <c r="R33">
-        <v>171.238800605504</v>
+        <v>947.5348400393879</v>
       </c>
       <c r="S33">
-        <v>0.00246270927180428</v>
+        <v>0.01465006614290386</v>
       </c>
       <c r="T33">
-        <v>0.00246270927180428</v>
+        <v>0.01465006614290386</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H34">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.488968</v>
+        <v>1.384207</v>
       </c>
       <c r="N34">
-        <v>1.466904</v>
+        <v>4.152621</v>
       </c>
       <c r="O34">
-        <v>0.05121105309488437</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="P34">
-        <v>0.05121105309488436</v>
+        <v>0.2466961354758073</v>
       </c>
       <c r="Q34">
-        <v>20.69803369480533</v>
+        <v>324.2221661063659</v>
       </c>
       <c r="R34">
-        <v>186.282303253248</v>
+        <v>2917.999494957294</v>
       </c>
       <c r="S34">
-        <v>0.002679060783961629</v>
+        <v>0.04511589843420153</v>
       </c>
       <c r="T34">
-        <v>0.002679060783961628</v>
+        <v>0.04511589843420153</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H35">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>6.544727666666667</v>
+        <v>1.166634</v>
       </c>
       <c r="N35">
-        <v>19.634183</v>
+        <v>3.499902</v>
       </c>
       <c r="O35">
-        <v>0.6854485283888218</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="P35">
-        <v>0.6854485283888216</v>
+        <v>0.2079198409737004</v>
       </c>
       <c r="Q35">
-        <v>277.0385664664996</v>
+        <v>273.2601428350919</v>
       </c>
       <c r="R35">
-        <v>2493.347098198496</v>
+        <v>2459.341285515828</v>
       </c>
       <c r="S35">
-        <v>0.03585863130813337</v>
+        <v>0.0380244725347338</v>
       </c>
       <c r="T35">
-        <v>0.03585863130813337</v>
+        <v>0.0380244725347338</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H36">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.8194676666666667</v>
+        <v>1.273574666666667</v>
       </c>
       <c r="N36">
-        <v>2.458403</v>
+        <v>3.820724</v>
       </c>
       <c r="O36">
-        <v>0.08582525275111598</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="P36">
-        <v>0.08582525275111597</v>
+        <v>0.2269790201223922</v>
       </c>
       <c r="Q36">
-        <v>34.68809692345955</v>
+        <v>298.3088057818373</v>
       </c>
       <c r="R36">
-        <v>312.192872311136</v>
+        <v>2684.779252036536</v>
       </c>
       <c r="S36">
-        <v>0.004489871912867932</v>
+        <v>0.04151002365231892</v>
       </c>
       <c r="T36">
-        <v>0.004489871912867931</v>
+        <v>0.04151002365231891</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H37">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.9389336666666667</v>
+        <v>0.7967789999999999</v>
       </c>
       <c r="N37">
-        <v>2.816801</v>
+        <v>2.390337</v>
       </c>
       <c r="O37">
-        <v>0.09833727740105923</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="P37">
-        <v>0.09833727740105921</v>
+        <v>0.142003544360257</v>
       </c>
       <c r="Q37">
-        <v>39.74509716352355</v>
+        <v>186.629177058102</v>
       </c>
       <c r="R37">
-        <v>357.705874471712</v>
+        <v>1679.662593522918</v>
       </c>
       <c r="S37">
-        <v>0.005144427375836386</v>
+        <v>0.02596967103800563</v>
       </c>
       <c r="T37">
-        <v>0.005144427375836386</v>
+        <v>0.02596967103800563</v>
       </c>
     </row>
   </sheetData>
